--- a/Excel Obstacle Course 2 XTimer.xlsx
+++ b/Excel Obstacle Course 2 XTimer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanp\OneDrive\Desktop\excelObstacleCourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65D24F5C-B5F2-4FEB-9642-5AB48A81BEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DBBEAC6-364E-431A-8382-0E824B74C3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A51B3495-FB35-4BD8-B569-4CA137411D06}"/>
   </bookViews>
@@ -16,18 +16,18 @@
     <sheet name="MAIN PAGE" sheetId="8" r:id="rId1"/>
     <sheet name="START" sheetId="4" r:id="rId2"/>
     <sheet name="find and replace" sheetId="3" r:id="rId3"/>
-    <sheet name="formatting" sheetId="6" r:id="rId4"/>
-    <sheet name="auto filter" sheetId="2" r:id="rId5"/>
-    <sheet name="text to columns" sheetId="1" r:id="rId6"/>
-    <sheet name="home and end keys" sheetId="13" r:id="rId7"/>
-    <sheet name="remove duplicates" sheetId="7" r:id="rId8"/>
-    <sheet name="paste formatting" sheetId="10" r:id="rId9"/>
-    <sheet name="paste formatting 2" sheetId="5" r:id="rId10"/>
-    <sheet name="Bold Italics Underline" sheetId="11" r:id="rId11"/>
+    <sheet name="formatting 1" sheetId="11" r:id="rId4"/>
+    <sheet name="formatting 2" sheetId="6" r:id="rId5"/>
+    <sheet name="auto filter" sheetId="2" r:id="rId6"/>
+    <sheet name="text to columns" sheetId="1" r:id="rId7"/>
+    <sheet name="home and end keys" sheetId="13" r:id="rId8"/>
+    <sheet name="remove duplicates" sheetId="7" r:id="rId9"/>
+    <sheet name="paste formatting" sheetId="10" r:id="rId10"/>
+    <sheet name="paste formatting 2" sheetId="5" r:id="rId11"/>
     <sheet name="FINAL" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'auto filter'!$B$1:$B$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'auto filter'!$B$1:$B$36</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -3159,6 +3159,259 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDE7112-54D6-4E30-AD4D-890316E1A3F8}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1277763D-E11F-4091-B2B2-CCED23EC7F2A}">
   <dimension ref="C3:G27"/>
   <sheetViews>
@@ -3347,351 +3600,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161508D5-A8E7-41FE-BAE4-32741EDA573B}">
-  <dimension ref="A2:N22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" t="s">
-        <v>72</v>
-      </c>
-      <c r="K6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>72</v>
-      </c>
-      <c r="K8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" t="s">
-        <v>72</v>
-      </c>
-      <c r="K9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" t="s">
-        <v>72</v>
-      </c>
-      <c r="K12" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="M12" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="N12" s="39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K13" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="L13" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="M13" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="N13" s="43" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K14" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="L14" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="M14" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="N14" s="43" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K15" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="L15" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="M15" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="N15" s="43" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K16" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="L16" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="M16" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="N16" s="43" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K17" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="L17" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="M17" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="N17" s="43" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K18" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="L18" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="M18" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="N18" s="43" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K19" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="M19" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="N19" s="43" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K20" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="L20" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="M20" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="N20" s="43" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K21" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="L21" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="M21" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="N21" s="43" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="11:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K22" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="L22" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="M22" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="N22" s="47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4462,6 +4370,351 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161508D5-A8E7-41FE-BAE4-32741EDA573B}">
+  <dimension ref="A2:N22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" s="39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K13" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" s="43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K14" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="N14" s="43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K15" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="M15" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="N15" s="43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K16" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="M16" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="N16" s="43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K17" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="M17" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="N17" s="43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K18" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="M18" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="N18" s="43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K19" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="M19" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="N19" s="43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K20" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="M20" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="N20" s="43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K21" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="M21" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="N21" s="43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="11:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K22" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="L22" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="M22" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="N22" s="47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822A9AC3-3046-404D-984C-CD5E19961B44}">
   <dimension ref="B1:F17"/>
   <sheetViews>
@@ -4667,7 +4920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE56F37-E1A1-4AC9-AEEF-72A6CDC847E1}">
   <dimension ref="B1:B36"/>
   <sheetViews>
@@ -4863,7 +5116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C84D99E-CD63-4D4C-B011-FA20D68EFAE1}">
   <dimension ref="A1:D29"/>
   <sheetViews>
@@ -5109,7 +5362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A69194-5CA4-4909-B2DC-022D050A22F8}">
   <dimension ref="A1:I24"/>
   <sheetViews>
@@ -5819,7 +6072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE814BD7-C86B-4BDF-B582-A5D7D7FC8B7F}">
   <dimension ref="A1:F36"/>
   <sheetViews>
@@ -6453,257 +6706,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDE7112-54D6-4E30-AD4D-890316E1A3F8}">
-  <dimension ref="A1:D22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Excel Obstacle Course 2 XTimer.xlsx
+++ b/Excel Obstacle Course 2 XTimer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanp\OneDrive\Desktop\excelObstacleCourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A36D60A-7141-47DE-9C76-DFEE3419B07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF75ACFD-AE18-4A63-9AA4-8909F756E5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A51B3495-FB35-4BD8-B569-4CA137411D06}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="69">
   <si>
     <t>A B C D</t>
   </si>
@@ -3308,15 +3308,11 @@
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3325,24 +3321,18 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
         <v>1</v>
       </c>
@@ -3354,15 +3344,11 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
         <v>1</v>
       </c>
@@ -3374,9 +3360,7 @@
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
@@ -3386,35 +3370,27 @@
       <c r="F6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -3423,9 +3399,7 @@
       <c r="C8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
         <v>1</v>
       </c>
@@ -3440,9 +3414,7 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
@@ -3452,46 +3424,28 @@
       <c r="E9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
         <v>1</v>
       </c>
@@ -3518,9 +3472,7 @@
       <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
         <v>7</v>
       </c>
@@ -3535,9 +3487,7 @@
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
         <v>1</v>
       </c>
@@ -3567,20 +3517,14 @@
       <c r="E14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
         <v>1</v>
       </c>
@@ -3596,9 +3540,7 @@
       <c r="G15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
@@ -3613,26 +3555,18 @@
       <c r="E16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
         <v>7</v>
       </c>
@@ -3659,32 +3593,20 @@
       <c r="E18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
         <v>7</v>
       </c>
@@ -3693,21 +3615,15 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
         <v>1</v>
       </c>

--- a/Excel Obstacle Course 2 XTimer.xlsx
+++ b/Excel Obstacle Course 2 XTimer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanp\OneDrive\Desktop\excelObstacleCourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF75ACFD-AE18-4A63-9AA4-8909F756E5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C6207A0-BDA2-46DB-B243-66FDD484861C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A51B3495-FB35-4BD8-B569-4CA137411D06}"/>
   </bookViews>
@@ -16,10 +16,10 @@
     <sheet name="MAIN PAGE" sheetId="8" r:id="rId1"/>
     <sheet name="START" sheetId="4" r:id="rId2"/>
     <sheet name="formatting 1" sheetId="11" r:id="rId3"/>
-    <sheet name="formatting 2" sheetId="6" r:id="rId4"/>
-    <sheet name="home and end keys" sheetId="13" r:id="rId5"/>
+    <sheet name="home and end keys" sheetId="13" r:id="rId4"/>
+    <sheet name="paste formatting" sheetId="10" r:id="rId5"/>
     <sheet name="remove duplicates" sheetId="7" r:id="rId6"/>
-    <sheet name="paste formatting" sheetId="10" r:id="rId7"/>
+    <sheet name="formatting 2" sheetId="6" r:id="rId7"/>
     <sheet name="paste formatting 2" sheetId="5" r:id="rId8"/>
     <sheet name="text to columns" sheetId="1" r:id="rId9"/>
     <sheet name="find and replace" sheetId="3" r:id="rId10"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="69">
   <si>
     <t>A B C D</t>
   </si>
@@ -672,7 +672,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -741,6 +741,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1438,7 +1441,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> tap F, tap F</a:t>
+            <a:t> tap D, tap F, tap F</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1873,262 +1876,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08C22BC2-F327-4D06-A903-4CA83F6BA9A8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4914899" y="304800"/>
-          <a:ext cx="6467476" cy="2190750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Format according to the Headers </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>HINTS: </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Dollar</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> Format: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>hold CTRL and Shift, tap 4</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>  </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Percentage Format: hold CTRL and Shift,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> tap 5</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Plain</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> Format: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>hold CTRL and Shift, tap ~</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="2000" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -2267,6 +2014,128 @@
             <a:t>Hold CTRL, tap HOME</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A1F7BA7-77D2-4C6E-ADF4-C228172E0602}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3848100" y="180975"/>
+          <a:ext cx="6467476" cy="2190750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Copy/Paste formatting from box 1 into box 2 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>HINT: Right Click Button, S, R </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -2458,22 +2327,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>361951</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A1F7BA7-77D2-4C6E-ADF4-C228172E0602}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08C22BC2-F327-4D06-A903-4CA83F6BA9A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2481,7 +2350,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3848100" y="180975"/>
+          <a:off x="4914899" y="304800"/>
           <a:ext cx="6467476" cy="2190750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2529,12 +2398,12 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Copy/Paste formatting from box 1 into box 2 </a:t>
+            <a:t>Format according to the Headers </a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -2556,9 +2425,60 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>HINT: Right Click Button, S, R </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:t>HINTS: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Dollar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Format: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>hold CTRL and Shift, tap 4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -2566,6 +2486,89 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Percentage Format: hold CTRL and Shift,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> tap 5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Plain</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Format: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>hold CTRL and Shift, tap ~</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -2651,7 +2654,55 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Format all cells in the box in Gray and centered, like cell E5. </a:t>
+            <a:t>Format all cells in the box in Gray and centered</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> w</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ith a thick</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> border,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> like cell E5. </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3221,13 +3272,13 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D3" s="38" t="str">
+      <c r="D3" s="39" t="str">
         <f>IF(AND(B5&lt;&gt;"",B6=""),"TIMER STARTED!  PROCEED TO 'START'","")</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="39"/>
+      <c r="D4" s="40"/>
     </row>
     <row r="5" spans="1:17" ht="62.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
@@ -3238,7 +3289,7 @@
         <f ca="1">IF(B5&lt;&gt;"",IF(C5&lt;&gt;"",C5,NOW()),"")</f>
         <v/>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="41"/>
       <c r="K5" s="26"/>
     </row>
     <row r="6" spans="1:17" ht="62.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3250,7 +3301,7 @@
         <f ca="1">IF(B6&lt;&gt;"",IF(C6&lt;&gt;"",C6,NOW()),"")</f>
         <v/>
       </c>
-      <c r="D6" s="41" t="str">
+      <c r="D6" s="42" t="str">
         <f>IF(B6&lt;&gt;"","TIMER STOPPED!","")</f>
         <v/>
       </c>
@@ -3258,12 +3309,12 @@
     </row>
     <row r="7" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="29"/>
-      <c r="D7" s="42"/>
+      <c r="D7" s="43"/>
       <c r="K7" s="30"/>
     </row>
     <row r="8" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="29"/>
-      <c r="D8" s="43"/>
+      <c r="D8" s="44"/>
       <c r="Q8" s="31"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -3305,10 +3356,10 @@
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3316,23 +3367,23 @@
       <c r="G3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="F4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="H4" s="3" t="s">
         <v>1</v>
       </c>
@@ -3344,10 +3395,10 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
         <v>1</v>
@@ -3357,10 +3408,10 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
@@ -3376,7 +3427,9 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
@@ -3393,9 +3446,7 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
         <v>1</v>
       </c>
@@ -3414,7 +3465,9 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
@@ -3424,55 +3477,61 @@
       <c r="E9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="F12" s="3" t="s">
         <v>7</v>
       </c>
@@ -3491,15 +3550,11 @@
       <c r="D13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
         <v>7</v>
       </c>
@@ -3511,14 +3566,16 @@
       <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="H14" s="3" t="s">
         <v>1</v>
       </c>
@@ -3531,15 +3588,9 @@
       <c r="D15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -3555,8 +3606,12 @@
       <c r="E16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="H16" s="3" t="s">
         <v>1</v>
       </c>
@@ -3573,9 +3628,7 @@
       <c r="F17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
         <v>1</v>
       </c>
@@ -3584,15 +3637,11 @@
       <c r="B18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
         <v>1</v>
@@ -3603,10 +3652,16 @@
       <c r="B19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="G19" s="3" t="s">
         <v>7</v>
       </c>
@@ -3619,14 +3674,14 @@
       <c r="C20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="D20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3"/>
       <c r="H20" s="3" t="s">
         <v>1</v>
       </c>
@@ -3857,104 +3912,104 @@
       <c r="A2" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:12" ht="92.25" x14ac:dyDescent="1.35">
@@ -4341,210 +4396,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822A9AC3-3046-404D-984C-CD5E19961B44}">
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>92.92</v>
-      </c>
-      <c r="B2">
-        <v>0.92920000000000003</v>
-      </c>
-      <c r="C2" s="19">
-        <v>92.92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>11.61</v>
-      </c>
-      <c r="B3">
-        <v>0.11609999999999999</v>
-      </c>
-      <c r="C3" s="19">
-        <v>11.61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>31.62</v>
-      </c>
-      <c r="B4">
-        <v>0.31620000000000004</v>
-      </c>
-      <c r="C4" s="20">
-        <v>0.31620000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>82.68</v>
-      </c>
-      <c r="B5">
-        <v>0.82680000000000009</v>
-      </c>
-      <c r="C5" s="20">
-        <v>0.82680000000000009</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>94.93</v>
-      </c>
-      <c r="B6">
-        <v>0.94930000000000003</v>
-      </c>
-      <c r="C6" s="20">
-        <v>0.94930000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>42.21</v>
-      </c>
-      <c r="B7">
-        <v>0.42210000000000003</v>
-      </c>
-      <c r="C7" s="20">
-        <v>0.42210000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>58.38</v>
-      </c>
-      <c r="B8">
-        <v>0.58379999999999999</v>
-      </c>
-      <c r="C8" s="20">
-        <v>0.58379999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>10.99</v>
-      </c>
-      <c r="B9">
-        <v>0.1099</v>
-      </c>
-      <c r="C9" s="19">
-        <v>10.99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>81.5</v>
-      </c>
-      <c r="B10">
-        <v>0.81499999999999995</v>
-      </c>
-      <c r="C10" s="19">
-        <v>81.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9.93</v>
-      </c>
-      <c r="B11">
-        <v>9.9299999999999999E-2</v>
-      </c>
-      <c r="C11" s="19">
-        <v>9.93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>74.489999999999995</v>
-      </c>
-      <c r="B12">
-        <v>0.7448999999999999</v>
-      </c>
-      <c r="C12" s="19">
-        <v>74.489999999999995</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>28.36</v>
-      </c>
-      <c r="B13">
-        <v>0.28360000000000002</v>
-      </c>
-      <c r="C13" s="20">
-        <v>0.28360000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>84.26</v>
-      </c>
-      <c r="B14">
-        <v>0.84260000000000002</v>
-      </c>
-      <c r="C14" s="20">
-        <v>0.84260000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>98.99</v>
-      </c>
-      <c r="B15">
-        <v>0.9899</v>
-      </c>
-      <c r="C15" s="20">
-        <v>0.9899</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>62.02</v>
-      </c>
-      <c r="B16">
-        <v>0.62020000000000008</v>
-      </c>
-      <c r="C16" s="19">
-        <v>62.02</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>21.78</v>
-      </c>
-      <c r="B17">
-        <v>0.21780000000000002</v>
-      </c>
-      <c r="C17" s="20">
-        <v>0.21780000000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A69194-5CA4-4909-B2DC-022D050A22F8}">
   <dimension ref="A1:I24"/>
   <sheetViews>
@@ -5246,6 +5097,259 @@
       </c>
       <c r="I24" s="36" t="s">
         <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDE7112-54D6-4E30-AD4D-890316E1A3F8}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -5452,250 +5556,203 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDE7112-54D6-4E30-AD4D-890316E1A3F8}">
-  <dimension ref="A1:D22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822A9AC3-3046-404D-984C-CD5E19961B44}">
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>92.92</v>
+      </c>
+      <c r="B2">
+        <v>0.92920000000000003</v>
+      </c>
+      <c r="C2" s="19">
+        <v>92.92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>11.61</v>
+      </c>
+      <c r="B3">
+        <v>0.11609999999999999</v>
+      </c>
+      <c r="C3" s="19">
+        <v>11.61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>31.62</v>
+      </c>
+      <c r="B4">
+        <v>0.31620000000000004</v>
+      </c>
+      <c r="C4" s="20">
+        <v>0.31620000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>82.68</v>
+      </c>
+      <c r="B5">
+        <v>0.82680000000000009</v>
+      </c>
+      <c r="C5" s="20">
+        <v>0.82680000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>94.93</v>
+      </c>
+      <c r="B6">
+        <v>0.94930000000000003</v>
+      </c>
+      <c r="C6" s="20">
+        <v>0.94930000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>42.21</v>
+      </c>
+      <c r="B7">
+        <v>0.42210000000000003</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0.42210000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>58.38</v>
+      </c>
+      <c r="B8">
+        <v>0.58379999999999999</v>
+      </c>
+      <c r="C8" s="20">
+        <v>0.58379999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10.99</v>
+      </c>
+      <c r="B9">
+        <v>0.1099</v>
+      </c>
+      <c r="C9" s="19">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>81.5</v>
+      </c>
+      <c r="B10">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="C10" s="19">
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9.93</v>
+      </c>
+      <c r="B11">
+        <v>9.9299999999999999E-2</v>
+      </c>
+      <c r="C11" s="19">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>74.489999999999995</v>
+      </c>
+      <c r="B12">
+        <v>0.7448999999999999</v>
+      </c>
+      <c r="C12" s="19">
+        <v>74.489999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>28.36</v>
+      </c>
+      <c r="B13">
+        <v>0.28360000000000002</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0.28360000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>84.26</v>
+      </c>
+      <c r="B14">
+        <v>0.84260000000000002</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0.84260000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>98.99</v>
+      </c>
+      <c r="B15">
+        <v>0.9899</v>
+      </c>
+      <c r="C15" s="20">
+        <v>0.9899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>62.02</v>
+      </c>
+      <c r="B16">
+        <v>0.62020000000000008</v>
+      </c>
+      <c r="C16" s="19">
+        <v>62.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>21.78</v>
+      </c>
+      <c r="B17">
+        <v>0.21780000000000002</v>
+      </c>
+      <c r="C17" s="20">
+        <v>0.21780000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -5786,17 +5843,17 @@
       </c>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14"/>
       <c r="G13" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="38" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="15"/>

--- a/Excel Obstacle Course 2 XTimer.xlsx
+++ b/Excel Obstacle Course 2 XTimer.xlsx
@@ -1,33 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanp\OneDrive\Desktop\excelObstacleCourse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C6207A0-BDA2-46DB-B243-66FDD484861C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77CEDAC7-D3D4-4BC8-8C65-F67020AE52B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A51B3495-FB35-4BD8-B569-4CA137411D06}"/>
   </bookViews>
   <sheets>
-    <sheet name="MAIN PAGE" sheetId="8" r:id="rId1"/>
-    <sheet name="START" sheetId="4" r:id="rId2"/>
-    <sheet name="formatting 1" sheetId="11" r:id="rId3"/>
-    <sheet name="home and end keys" sheetId="13" r:id="rId4"/>
-    <sheet name="paste formatting" sheetId="10" r:id="rId5"/>
-    <sheet name="remove duplicates" sheetId="7" r:id="rId6"/>
-    <sheet name="formatting 2" sheetId="6" r:id="rId7"/>
-    <sheet name="paste formatting 2" sheetId="5" r:id="rId8"/>
-    <sheet name="text to columns" sheetId="1" r:id="rId9"/>
-    <sheet name="find and replace" sheetId="3" r:id="rId10"/>
-    <sheet name="auto filter" sheetId="2" r:id="rId11"/>
-    <sheet name="FINAL" sheetId="9" r:id="rId12"/>
+    <sheet name="Creator's Message" sheetId="14" r:id="rId1"/>
+    <sheet name="MAIN PAGE" sheetId="8" r:id="rId2"/>
+    <sheet name="START" sheetId="4" r:id="rId3"/>
+    <sheet name="formatting 1" sheetId="11" r:id="rId4"/>
+    <sheet name="home and end keys" sheetId="13" r:id="rId5"/>
+    <sheet name="paste formatting" sheetId="10" r:id="rId6"/>
+    <sheet name="remove duplicates" sheetId="7" r:id="rId7"/>
+    <sheet name="formatting 2" sheetId="6" r:id="rId8"/>
+    <sheet name="paste formatting 2" sheetId="5" r:id="rId9"/>
+    <sheet name="text to columns" sheetId="1" r:id="rId10"/>
+    <sheet name="find and replace" sheetId="3" r:id="rId11"/>
+    <sheet name="auto filter" sheetId="2" r:id="rId12"/>
+    <sheet name="FINAL" sheetId="9" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'auto filter'!$A$1:$A$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'auto filter'!$A$1:$A$36</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -815,6 +816,712 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D6B1AE7-238A-44E2-B071-831A0531BEFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12858750" cy="5419725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="8000"/>
+            <a:t>Welcome!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000"/>
+            <a:t>To</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" baseline="0"/>
+            <a:t> show appreciation for this </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" baseline="0"/>
+            <a:t>valuable, free resource, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Please subscribe to my </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>YouTube channel: ExcelObstacleCourse</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" baseline="0"/>
+            <a:t>Please also share my videos so we can continue to</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" baseline="0"/>
+            <a:t>grow the audience and community!</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83085D5A-D6C2-42EC-A892-0CDBF2574DD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="4572000"/>
+          <a:ext cx="6467476" cy="2190750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Simple Text to Columns</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>HINTS: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tap Alt, tap</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> D, tap E, tap F, tap Enter</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>End Result should look like this</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>162789</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FF6E61D-E7A0-5C0D-F8A2-FDD1A1BB6570}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="2200275"/>
+          <a:ext cx="2914650" cy="4058514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD978CA2-3E89-48E0-B252-CC2114951139}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5476874" y="219075"/>
+          <a:ext cx="6467475" cy="1438275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Replace all "Z"s with "A"s to make all cells green</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HINT: Hold CTRL,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> tap H</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E284FA4E-BC0D-407B-A3EA-6A3B6ADC67F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="190500"/>
+          <a:ext cx="6467476" cy="2190750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Create Auto-Filter and filter 'cow' only </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>HINTS: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Auto Filter, tap ALT,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> tap D, tap F, tap F</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Alt with Down Arrow: pull up filter menu</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Spacebar to select/deselect items</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1590675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAB4557D-4A90-41EE-8238-35F07E6C52A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8553450" y="1514475"/>
+          <a:ext cx="1885950" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>NOTE: you must hold down CTRL and continue to tap Pg Up until you arrive at the Main Page</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
@@ -1184,384 +1891,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD978CA2-3E89-48E0-B252-CC2114951139}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5476874" y="219075"/>
-          <a:ext cx="6467475" cy="1438275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Replace all "Z"s with "A"s to make all cells green</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="2000" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>HINT: Hold CTRL,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> tap H</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="2000" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>371476</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E284FA4E-BC0D-407B-A3EA-6A3B6ADC67F8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2438400" y="190500"/>
-          <a:ext cx="6467476" cy="2190750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Create Auto-Filter and filter 'cow' only </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>HINTS: </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Auto Filter, tap ALT,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> tap D, tap F, tap F</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Alt with Down Arrow: pull up filter menu</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Spacebar to select/deselect items</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="2000" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1590675</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAB4557D-4A90-41EE-8238-35F07E6C52A2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8553450" y="1514475"/>
-          <a:ext cx="1885950" cy="838200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>NOTE: you must hold down CTRL and continue to tap Pg Up until you arrive at the Main Page</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1674,7 +2004,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1872,7 +2202,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2030,7 +2360,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2152,7 +2482,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2322,7 +2652,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2578,7 +2908,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2743,205 +3073,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>371476</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83085D5A-D6C2-42EC-A892-0CDBF2574DD7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6096000" y="4572000"/>
-          <a:ext cx="6467476" cy="2190750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Simple Text to Columns</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>HINTS: </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Tap Alt, tap</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> D, tap E, tap F, tap Enter</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>End Result should look like this</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>162789</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FF6E61D-E7A0-5C0D-F8A2-FDD1A1BB6570}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5334000" y="2200275"/>
-          <a:ext cx="2914650" cy="4058514"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3243,10 +3374,954 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6596FB-876F-429A-806D-CFFD27D1F9FB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C84D99E-CD63-4D4C-B011-FA20D68EFAE1}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2954D1-10B9-4D9A-BC79-4E7EBD7A50DB}">
+  <dimension ref="B3:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J3 B3:H20">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Z"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE56F37-E1A1-4AC9-AEEF-72A6CDC847E1}">
+  <dimension ref="A1:A36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB67D47-939A-4EDE-ACE8-5719E8BC6DCB}">
+  <dimension ref="A2:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="12" max="12" width="34.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="32"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:12" ht="92.25" x14ac:dyDescent="1.35">
+      <c r="A12" s="33"/>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:L10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF69F03-2891-468A-AB81-3AFCC0BCB467}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -3342,690 +4417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2954D1-10B9-4D9A-BC79-4E7EBD7A50DB}">
-  <dimension ref="B3:H20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="J3 B3:H20">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"Z"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE56F37-E1A1-4AC9-AEEF-72A6CDC847E1}">
-  <dimension ref="A1:A36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB67D47-939A-4EDE-ACE8-5719E8BC6DCB}">
-  <dimension ref="A2:L13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="12" max="12" width="34.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-    </row>
-    <row r="11" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:12" ht="92.25" x14ac:dyDescent="1.35">
-      <c r="A12" s="33"/>
-    </row>
-    <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:L10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54104754-9EB7-4CF1-A4ED-6C300145E0CA}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -4222,7 +4614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161508D5-A8E7-41FE-BAE4-32741EDA573B}">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -4395,7 +4787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A69194-5CA4-4909-B2DC-022D050A22F8}">
   <dimension ref="A1:I24"/>
   <sheetViews>
@@ -5105,7 +5497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDE7112-54D6-4E30-AD4D-890316E1A3F8}">
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -5358,7 +5750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE814BD7-C86B-4BDF-B582-A5D7D7FC8B7F}">
   <dimension ref="A1:A36"/>
   <sheetViews>
@@ -5555,7 +5947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822A9AC3-3046-404D-984C-CD5E19961B44}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -5761,7 +6153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1277763D-E11F-4091-B2B2-CCED23EC7F2A}">
   <dimension ref="C3:G27"/>
   <sheetViews>
@@ -5951,250 +6343,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C84D99E-CD63-4D4C-B011-FA20D68EFAE1}">
-  <dimension ref="A1:D29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>